--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1078.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1078.xlsx
@@ -354,7 +354,7 @@
         <v>2.014782622176046</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.178158892211836</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1078.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1078.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8737654809226054</v>
+        <v>1.211277842521667</v>
       </c>
       <c r="B1">
-        <v>2.014782622176046</v>
+        <v>2.613821029663086</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>2.178158892211836</v>
+        <v>2.172142505645752</v>
       </c>
       <c r="E1">
-        <v>1.383638134137235</v>
+        <v>1.16086757183075</v>
       </c>
     </row>
   </sheetData>
